--- a/utility/utility.xlsx
+++ b/utility/utility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\business\utility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Personal\business\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98319D8A-4207-46A9-9261-7C83EDCC913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B538B-54DB-4E72-996F-329156B52E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79AD6B82-243A-40AA-991E-2976CF814291}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79AD6B82-243A-40AA-991E-2976CF814291}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,14 +417,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28498473-FAE1-428A-9606-55EC27C2FB9B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B2">
+        <v>28.0560827925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B3">
+        <v>82.008272618999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B4">
+        <v>69.649618310999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B5">
+        <v>74.836794123000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B6">
+        <v>59.448412568999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B7">
+        <v>92.620695394500004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B8">
+        <v>86.335253823000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B9">
+        <v>47.514903187500003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B10">
+        <v>57.243204689999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B11">
+        <v>67.420977424499995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B12">
+        <v>83.121696252000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B13">
+        <v>80.163672183000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B14">
+        <v>60.209606645999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B15">
+        <v>69.404211082499998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B16">
+        <v>61.841638844999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B17">
+        <v>61.210289805000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B18">
+        <v>66.859985808000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B19">
+        <v>67.810964760000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B20">
+        <v>50.902362818999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B21">
+        <v>51.317349950999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B22">
+        <v>55.244911406999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B23">
+        <v>48.569202611999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B24">
+        <v>49.791620696999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B25">
+        <v>49.419515176499999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B26">
+        <v>31.942779014999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>